--- a/src/documentation/Flowchard prayertime jamaa check.xlsx
+++ b/src/documentation/Flowchard prayertime jamaa check.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="18795" windowHeight="11250"/>
+    <workbookView xWindow="360" yWindow="80" windowWidth="27520" windowHeight="26760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,16 +99,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,13 +692,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>367852</xdr:colOff>
+      <xdr:colOff>257968</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>160561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>374445</xdr:colOff>
+      <xdr:colOff>367852</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -706,9 +711,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429459" y="1113061"/>
-          <a:ext cx="6593" cy="125189"/>
+        <a:xfrm flipH="1">
+          <a:off x="3610768" y="1074961"/>
+          <a:ext cx="109884" cy="117569"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -737,13 +742,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>374445</xdr:colOff>
+      <xdr:colOff>257968</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>10409</xdr:rowOff>
+      <xdr:rowOff>48509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317790</xdr:colOff>
+      <xdr:colOff>317791</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -757,8 +762,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436052" y="2105909"/>
-          <a:ext cx="555667" cy="1104016"/>
+          <a:off x="3610768" y="2060189"/>
+          <a:ext cx="730383" cy="1027816"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -787,13 +792,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>374445</xdr:colOff>
+      <xdr:colOff>257968</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>10409</xdr:rowOff>
+      <xdr:rowOff>48509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>233352</xdr:colOff>
+      <xdr:colOff>204232</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>175532</xdr:rowOff>
     </xdr:to>
@@ -807,8 +812,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436052" y="2105909"/>
-          <a:ext cx="10799050" cy="355623"/>
+          <a:off x="3610768" y="2060189"/>
+          <a:ext cx="12117944" cy="309903"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -837,13 +842,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317790</xdr:colOff>
+      <xdr:colOff>259647</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>27211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>434362</xdr:colOff>
+      <xdr:colOff>317791</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53067</xdr:rowOff>
     </xdr:to>
@@ -856,9 +861,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3991719" y="3646711"/>
-          <a:ext cx="116572" cy="406856"/>
+        <a:xfrm flipH="1">
+          <a:off x="4283007" y="3501931"/>
+          <a:ext cx="58144" cy="391616"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2408,13 +2413,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317790</xdr:colOff>
+      <xdr:colOff>317791</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>27211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>380538</xdr:colOff>
+      <xdr:colOff>55055</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -2428,8 +2433,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3991719" y="3646711"/>
-          <a:ext cx="5056569" cy="462646"/>
+          <a:off x="4341151" y="3501931"/>
+          <a:ext cx="5345584" cy="447406"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2664,9 +2669,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>380538</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175637</xdr:rowOff>
+      <xdr:colOff>55055</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -2684,8 +2689,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048288" y="5319137"/>
-          <a:ext cx="25252" cy="409470"/>
+          <a:off x="9686735" y="5159117"/>
+          <a:ext cx="350735" cy="340890"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3081,24 +3086,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:14">
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:14">
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3112,32 +3117,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:14">
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:14">
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10">
       <c r="J51" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="4"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3147,9 +3157,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3159,8 +3174,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/documentation/Flowchard prayertime jamaa check.xlsx
+++ b/src/documentation/Flowchard prayertime jamaa check.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="80" windowWidth="27520" windowHeight="26760"/>
+    <workbookView xWindow="33500" yWindow="100" windowWidth="17440" windowHeight="26620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259647</xdr:colOff>
+      <xdr:colOff>225057</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>27211</xdr:rowOff>
     </xdr:from>
@@ -862,8 +862,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4283007" y="3501931"/>
-          <a:ext cx="58144" cy="391616"/>
+          <a:off x="4248417" y="3501931"/>
+          <a:ext cx="92734" cy="391616"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -946,7 +946,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53067</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4338547" cy="1209780"/>
+    <xdr:ext cx="4269368" cy="855940"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Flowchart: Decision 44"/>
@@ -954,8 +954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1939017" y="4053567"/>
-          <a:ext cx="4338547" cy="1209780"/>
+          <a:off x="2113733" y="3893547"/>
+          <a:ext cx="4269368" cy="855940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1011,21 +1011,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>notification_Date </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&amp;&amp; notification_Sent</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1148,13 +1133,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>434362</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119847</xdr:rowOff>
+      <xdr:colOff>225057</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>434711</xdr:colOff>
+      <xdr:colOff>463831</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
@@ -1168,8 +1153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4108291" y="5263347"/>
-          <a:ext cx="349" cy="233938"/>
+          <a:off x="4248417" y="4749487"/>
+          <a:ext cx="238774" cy="534438"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1630,15 +1615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>143328</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>71845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>215840</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>78444</xdr:rowOff>
+      <xdr:colOff>114240</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>169884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1647,8 +1632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857249" y="11593285"/>
-          <a:ext cx="2420198" cy="867659"/>
+          <a:off x="813888" y="11776165"/>
+          <a:ext cx="2653152" cy="829559"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1712,15 +1697,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576762</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>252598</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>598038</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>114882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1730,8 +1715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1455965" y="13947322"/>
-          <a:ext cx="1245919" cy="264560"/>
+          <a:off x="1247322" y="14854102"/>
+          <a:ext cx="1362396" cy="256940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2019,15 +2004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>41282</xdr:colOff>
+      <xdr:colOff>461555</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378995</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>83000</xdr:rowOff>
+      <xdr:rowOff>41541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2036,8 +2021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="217715" y="10314214"/>
-          <a:ext cx="3497496" cy="436786"/>
+          <a:off x="461555" y="9851934"/>
+          <a:ext cx="3270240" cy="430887"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2095,7 +2080,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Mysql create notification_Date =  futue_fajr_jamaat_time</a:t>
+            <a:t>Mysql set notification_Date =  futue_fajr_jamaat_time</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU">
             <a:effectLst/>
@@ -2112,16 +2097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352264</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>74060</xdr:rowOff>
+      <xdr:colOff>311624</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2130,8 +2115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1224643" y="12954000"/>
-          <a:ext cx="1576907" cy="264560"/>
+          <a:off x="1300480" y="13055600"/>
+          <a:ext cx="1693384" cy="256940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2273,15 +2258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>176133</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>78444</xdr:rowOff>
+      <xdr:colOff>128784</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>169884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>230384</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>135492</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2292,9 +2277,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2013097" y="12460944"/>
-          <a:ext cx="54251" cy="493056"/>
+        <a:xfrm>
+          <a:off x="2140464" y="12605724"/>
+          <a:ext cx="6708" cy="449876"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2719,15 +2704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:colOff>295909</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348934</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>46846</xdr:rowOff>
+      <xdr:colOff>359094</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>178926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2736,8 +2721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1510392" y="15403286"/>
-          <a:ext cx="675506" cy="264560"/>
+          <a:off x="1637029" y="15291526"/>
+          <a:ext cx="733745" cy="249320"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2780,6 +2765,84 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Set label</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648377</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Flowchart: Process 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513840" y="13451840"/>
+          <a:ext cx="1146217" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>send notification</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
@@ -3086,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/src/documentation/Flowchard prayertime jamaa check.xlsx
+++ b/src/documentation/Flowchard prayertime jamaa check.xlsx
@@ -366,15 +366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>368753</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4083</xdr:rowOff>
+      <xdr:colOff>185873</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>499277</xdr:colOff>
+      <xdr:colOff>316397</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>59869</xdr:rowOff>
+      <xdr:rowOff>49709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -383,8 +383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2818039" y="6100083"/>
-          <a:ext cx="2579809" cy="436786"/>
+          <a:off x="2868113" y="5846083"/>
+          <a:ext cx="2812764" cy="421546"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -474,9 +474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>502083</xdr:colOff>
+      <xdr:colOff>214837</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>51812</xdr:rowOff>
+      <xdr:rowOff>87575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -485,8 +485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12741727" y="2461532"/>
-          <a:ext cx="2986749" cy="1209780"/>
+          <a:off x="14089741" y="2370092"/>
+          <a:ext cx="2990696" cy="1192203"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -541,7 +541,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>= </a:t>
+            <a:t>&lt;= </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -798,7 +798,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>204232</xdr:colOff>
+      <xdr:colOff>60609</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>175532</xdr:rowOff>
     </xdr:to>
@@ -813,7 +813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3610768" y="2060189"/>
-          <a:ext cx="12117944" cy="309903"/>
+          <a:ext cx="11974321" cy="309903"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1139,9 +1139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>463831</xdr:colOff>
+      <xdr:colOff>247185</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:rowOff>122645</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1154,7 +1154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4248417" y="4749487"/>
-          <a:ext cx="238774" cy="534438"/>
+          <a:ext cx="22128" cy="493798"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1183,13 +1183,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>434015</xdr:colOff>
+      <xdr:colOff>251135</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>59869</xdr:rowOff>
+      <xdr:rowOff>49709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>374423</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>31295</xdr:rowOff>
     </xdr:to>
@@ -1203,8 +1203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4107944" y="6536869"/>
-          <a:ext cx="1722036" cy="733426"/>
+          <a:off x="4274495" y="6267629"/>
+          <a:ext cx="2134968" cy="713106"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1446,13 +1446,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>202773</xdr:colOff>
+      <xdr:colOff>202772</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>59869</xdr:rowOff>
+      <xdr:rowOff>49709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>434015</xdr:colOff>
+      <xdr:colOff>251135</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
@@ -1466,8 +1466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2039737" y="6536869"/>
-          <a:ext cx="2068207" cy="715738"/>
+          <a:off x="2214452" y="6267629"/>
+          <a:ext cx="2060043" cy="695418"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2525,16 +2525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406581</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>216280</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>46845</xdr:rowOff>
+      <xdr:rowOff>122645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>87789</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2543,8 +2543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="5497285"/>
-          <a:ext cx="787780" cy="264560"/>
+          <a:off x="3088821" y="5243285"/>
+          <a:ext cx="2363448" cy="430887"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2586,7 +2586,191 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Clear label</a:t>
+            <a:t>athan_Change_Label.setVisible(false);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>divider2_Label.setVisible(false);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247185</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251135</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Straight Arrow Connector 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="158" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270545" y="5674172"/>
+          <a:ext cx="3950" cy="171911"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55055</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405790</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Straight Arrow Connector 165"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="2"/>
+          <a:endCxn id="157" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686735" y="5159117"/>
+          <a:ext cx="350735" cy="340890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>346709</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>122646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>18496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="Flowchart: Process 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1017269" y="15301686"/>
+          <a:ext cx="2335827" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>athan_Change_Label.setVisible(true);</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
@@ -2603,126 +2787,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434015</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>46845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434711</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4083</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="Straight Arrow Connector 159"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="158" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4107944" y="5761845"/>
-          <a:ext cx="696" cy="338238"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>55055</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>405790</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="Straight Arrow Connector 165"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="152" idx="2"/>
-          <a:endCxn id="157" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9686735" y="5159117"/>
-          <a:ext cx="350735" cy="340890"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295909</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>112486</xdr:rowOff>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>359094</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>178926</xdr:rowOff>
+      <xdr:colOff>648377</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="Flowchart: Process 176"/>
+        <xdr:cNvPr id="43" name="Flowchart: Process 140"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1637029" y="15291526"/>
-          <a:ext cx="733745" cy="249320"/>
+          <a:off x="1513840" y="13451840"/>
+          <a:ext cx="1146217" cy="261610"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2764,7 +2848,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Set label</a:t>
+            <a:t>send notification</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
@@ -2782,25 +2866,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>52069</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>21046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>648377</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>180330</xdr:rowOff>
+      <xdr:colOff>576561</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>99776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flowchart: Process 140"/>
+        <xdr:cNvPr id="51" name="Flowchart: Process 176"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1513840" y="13451840"/>
-          <a:ext cx="1146217" cy="261610"/>
+          <a:off x="1393189" y="15748726"/>
+          <a:ext cx="1195052" cy="261610"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2842,7 +2926,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>send notification</a:t>
+            <a:t>set label message</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
@@ -2852,6 +2936,158 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657060</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>27930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Flowchart: Process 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1950720" y="13665200"/>
+          <a:ext cx="2059140" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fajr_jamma_time_change = false</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>669018</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186091</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Flowchart: Process 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13511258" y="4053205"/>
+          <a:ext cx="3540433" cy="413926"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Query mysql for notification_Date, notification_Sent</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; message_String</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3149,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
